--- a/Nevasa/InstrumentosFinancieros/20240822/20240822_nevasa_instrumentos_financieros_results.xlsx
+++ b/Nevasa/InstrumentosFinancieros/20240822/20240822_nevasa_instrumentos_financieros_results.xlsx
@@ -440,7 +440,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>fecha</t>
+          <t>fecha_movimiento</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -455,7 +455,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>valor_nominal</t>
+          <t>cantidad</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>valor_final</t>
+          <t>monto</t>
         </is>
       </c>
     </row>
